--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1083,10 +1095,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1130,28 +1142,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1176,28 +1188,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1343,10 +1355,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1390,28 +1402,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1436,28 +1448,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1516,10 +1528,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1563,28 +1575,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1609,28 +1621,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1747,10 +1759,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1794,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1840,28 +1852,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2065,10 +2077,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2112,28 +2124,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2158,28 +2170,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2441,10 +2453,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2488,28 +2500,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2534,28 +2546,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2672,10 +2684,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2719,28 +2731,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2765,28 +2777,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2961,10 +2973,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3008,28 +3020,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3054,28 +3066,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3134,10 +3146,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3181,28 +3193,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3227,28 +3239,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3423,10 +3435,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3470,28 +3482,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3516,28 +3528,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3654,10 +3666,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3701,28 +3713,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3747,28 +3759,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3856,10 +3868,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3903,28 +3915,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3949,28 +3961,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4058,10 +4070,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4105,28 +4117,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4151,28 +4163,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4347,10 +4359,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4394,28 +4406,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4440,28 +4452,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4607,10 +4619,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4654,28 +4666,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4700,28 +4712,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4809,10 +4821,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4856,28 +4868,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4902,28 +4914,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4982,10 +4994,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5029,28 +5041,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5075,28 +5087,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5155,10 +5167,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5202,28 +5214,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5248,28 +5260,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5386,10 +5398,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5433,28 +5445,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5479,28 +5491,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5559,10 +5571,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5606,28 +5618,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5652,28 +5664,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5732,10 +5744,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5779,28 +5791,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5825,28 +5837,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5963,10 +5975,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6010,28 +6022,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6056,28 +6068,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6136,10 +6148,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6183,28 +6195,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6229,28 +6241,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6309,10 +6321,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6356,28 +6368,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6402,28 +6414,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6482,10 +6494,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6529,28 +6541,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6575,28 +6587,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6655,10 +6667,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6702,28 +6714,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6748,28 +6760,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6828,10 +6840,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6875,28 +6887,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6921,28 +6933,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7001,10 +7013,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7048,28 +7060,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7094,28 +7106,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7203,10 +7215,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7250,28 +7262,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7296,28 +7308,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7405,10 +7417,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7452,28 +7464,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7498,28 +7510,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7636,10 +7648,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7683,28 +7695,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7729,28 +7741,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7809,10 +7821,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7856,28 +7868,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7902,28 +7914,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8069,10 +8081,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8116,28 +8128,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8162,28 +8174,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8329,10 +8341,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8376,28 +8388,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8422,28 +8434,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8531,10 +8543,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9264" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -344,10 +392,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -391,28 +439,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="4">
+      <c r="A9" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="4">
+      <c r="C9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="4">
+      <c r="E9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="4">
+      <c r="F9" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -437,28 +485,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -691,10 +739,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -738,28 +786,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="4">
+      <c r="A21" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="4">
+      <c r="C21" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -784,28 +832,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="4">
+      <c r="B23" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="C23" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="4">
+      <c r="D23" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="4">
+      <c r="E23" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="4">
+      <c r="F23" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="4">
+      <c r="G23" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="4">
+      <c r="H23" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="4">
+      <c r="I23" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -922,10 +970,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="J27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -969,28 +1017,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="4">
+      <c r="A29" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="4">
+      <c r="B29" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="4">
+      <c r="C29" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="4">
+      <c r="E29" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="4">
+      <c r="F29" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="4">
+      <c r="G29" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="4">
+      <c r="H29" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1015,28 +1063,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="4">
+      <c r="B31" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="C31" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="4">
+      <c r="D31" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="4">
+      <c r="G31" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="4">
+      <c r="H31" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="4">
+      <c r="I31" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1095,10 +1143,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="J33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1142,28 +1190,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="4">
+      <c r="A35" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="4">
+      <c r="C35" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1188,28 +1236,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="4">
+      <c r="C37" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="4">
+      <c r="D37" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="4">
+      <c r="E37" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="4">
+      <c r="F37" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="4">
+      <c r="G37" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="4">
+      <c r="H37" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="4">
+      <c r="I37" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1355,10 +1403,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="4" t="s">
+      <c r="J42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1402,28 +1450,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="4">
+      <c r="A44" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="4">
+      <c r="C44" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1448,28 +1496,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="D46" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="4">
+      <c r="I46" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1528,10 +1576,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="J48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1575,28 +1623,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="4">
+      <c r="A50" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="4">
+      <c r="C50" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1621,28 +1669,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="D52" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="4">
+      <c r="G52" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="4">
+      <c r="H52" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="4">
+      <c r="I52" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1759,10 +1807,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="4" t="s">
+      <c r="J56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1806,28 +1854,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="4">
+      <c r="A58" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="4">
+      <c r="C58" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="4">
+      <c r="G58" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="4">
+      <c r="H58" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1852,28 +1900,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="C60" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="4">
+      <c r="D60" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="4">
+      <c r="I60" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2077,10 +2125,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="4" t="s">
+      <c r="J67" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2124,28 +2172,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="4">
+      <c r="A69" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="4">
+      <c r="C69" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="4">
+      <c r="E69" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="4">
+      <c r="F69" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="4">
+      <c r="G69" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="4">
+      <c r="H69" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2170,28 +2218,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="4">
+      <c r="C71" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="4">
+      <c r="D71" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="4">
+      <c r="G71" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="4">
+      <c r="H71" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="4">
+      <c r="I71" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2453,10 +2501,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="4" t="s">
+      <c r="J80" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2500,28 +2548,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="4">
+      <c r="A82" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="4">
+      <c r="B82" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="4">
+      <c r="C82" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="4">
+      <c r="E82" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="4">
+      <c r="F82" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="4">
+      <c r="G82" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="4">
+      <c r="H82" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2546,28 +2594,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="4">
+      <c r="C84" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="4">
+      <c r="D84" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="4">
+      <c r="G84" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="4">
+      <c r="H84" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="4">
+      <c r="I84" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2684,10 +2732,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="4" t="s">
+      <c r="J88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2731,28 +2779,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="4">
+      <c r="A90" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="4">
+      <c r="C90" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2777,28 +2825,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="4">
+      <c r="B92" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="4">
+      <c r="C92" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="4">
+      <c r="D92" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="4">
+      <c r="E92" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="4">
+      <c r="F92" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="4">
+      <c r="G92" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="4">
+      <c r="H92" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="4">
+      <c r="I92" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2973,10 +3021,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="4" t="s">
+      <c r="J98" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3020,28 +3068,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="4">
+      <c r="A100" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="4">
+      <c r="C100" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="4">
+      <c r="E100" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="4">
+      <c r="F100" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="4">
+      <c r="G100" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="4">
+      <c r="H100" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3066,28 +3114,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="4">
+      <c r="C102" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="4">
+      <c r="D102" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="4">
+      <c r="E102" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="4">
+      <c r="F102" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="4">
+      <c r="G102" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="4">
+      <c r="H102" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="4">
+      <c r="I102" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3146,10 +3194,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="4" t="s">
+      <c r="J104" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3193,28 +3241,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="4">
+      <c r="A106" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="4">
+      <c r="B106" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="4">
+      <c r="C106" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="4">
+      <c r="E106" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="4">
+      <c r="F106" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="4">
+      <c r="G106" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="4">
+      <c r="H106" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3239,28 +3287,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="4">
+      <c r="B108" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="4">
+      <c r="C108" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="4">
+      <c r="D108" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="4">
+      <c r="E108" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="4">
+      <c r="F108" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="4">
+      <c r="G108" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="4">
+      <c r="H108" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="4">
+      <c r="I108" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3435,10 +3483,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="4" t="s">
+      <c r="J114" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3482,28 +3530,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="4">
+      <c r="A116" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="4">
+      <c r="C116" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3528,28 +3576,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="4">
+      <c r="C118" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="4">
+      <c r="D118" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="4">
+      <c r="E118" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="4">
+      <c r="F118" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="4">
+      <c r="G118" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="4">
+      <c r="H118" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="4">
+      <c r="I118" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3666,10 +3714,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="4" t="s">
+      <c r="J122" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3713,28 +3761,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="4">
+      <c r="A124" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="4">
+      <c r="C124" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="4">
+      <c r="G124" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="4">
+      <c r="H124" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3759,28 +3807,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="4">
+      <c r="C126" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="4">
+      <c r="D126" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="4">
+      <c r="I126" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3868,10 +3916,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="4" t="s">
+      <c r="J129" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3915,28 +3963,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="4">
+      <c r="A131" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="4">
+      <c r="C131" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="4">
+      <c r="E131" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="4">
+      <c r="F131" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="4">
+      <c r="G131" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="4">
+      <c r="H131" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3961,28 +4009,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="4">
+      <c r="B133" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="4">
+      <c r="C133" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="4">
+      <c r="D133" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="4">
+      <c r="E133" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="4">
+      <c r="F133" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="4">
+      <c r="G133" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="4">
+      <c r="H133" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="4">
+      <c r="I133" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4070,10 +4118,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="4" t="s">
+      <c r="J136" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4117,28 +4165,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="4">
+      <c r="A138" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="4">
+      <c r="C138" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4163,28 +4211,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="4">
+      <c r="C140" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="4">
+      <c r="D140" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="4">
+      <c r="I140" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4359,10 +4407,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="4" t="s">
+      <c r="J146" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4406,28 +4454,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="4">
+      <c r="A148" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="4">
+      <c r="C148" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4452,28 +4500,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="4">
+      <c r="B150" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="4">
+      <c r="C150" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="4">
+      <c r="D150" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="4">
+      <c r="E150" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="4">
+      <c r="F150" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="4">
+      <c r="G150" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="4">
+      <c r="H150" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="4">
+      <c r="I150" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4619,10 +4667,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="4" t="s">
+      <c r="J155" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4666,28 +4714,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="4">
+      <c r="A157" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="4">
+      <c r="B157" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="4">
+      <c r="C157" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="4">
+      <c r="E157" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="4">
+      <c r="F157" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="4">
+      <c r="G157" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="4">
+      <c r="H157" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4712,28 +4760,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="4">
+      <c r="B159" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="4">
+      <c r="C159" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="4">
+      <c r="D159" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="4">
+      <c r="E159" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="4">
+      <c r="F159" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="4">
+      <c r="G159" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="4">
+      <c r="H159" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="4">
+      <c r="I159" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4821,10 +4869,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="4" t="s">
+      <c r="J162" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4868,28 +4916,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="4">
+      <c r="A164" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="4">
+      <c r="C164" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4914,28 +4962,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="4">
+      <c r="I166" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4994,10 +5042,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="4" t="s">
+      <c r="J168" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5041,28 +5089,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="4">
+      <c r="C170" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5087,28 +5135,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5167,10 +5215,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="4" t="s">
+      <c r="J174" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5214,28 +5262,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="4">
+      <c r="A176" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="4">
+      <c r="C176" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5260,28 +5308,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="4">
+      <c r="C178" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="4">
+      <c r="D178" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="4">
+      <c r="I178" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5398,10 +5446,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="4" t="s">
+      <c r="J182" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5445,28 +5493,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="4">
+      <c r="A184" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="4">
+      <c r="C184" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5491,28 +5539,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="4">
+      <c r="C186" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="4">
+      <c r="D186" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="4">
+      <c r="I186" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5571,10 +5619,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="4" t="s">
+      <c r="J188" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5618,28 +5666,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="4">
+      <c r="A190" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="4">
+      <c r="C190" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5664,28 +5712,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="4">
+      <c r="C192" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="4">
+      <c r="D192" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="4">
+      <c r="I192" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5744,10 +5792,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="4" t="s">
+      <c r="J194" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5791,28 +5839,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="4">
+      <c r="A196" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="4">
+      <c r="B196" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="4">
+      <c r="C196" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="4">
+      <c r="E196" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="4">
+      <c r="F196" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="4">
+      <c r="G196" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="4">
+      <c r="H196" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5837,28 +5885,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="4">
+      <c r="B198" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="4">
+      <c r="C198" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="4">
+      <c r="D198" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="4">
+      <c r="E198" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="4">
+      <c r="F198" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="4">
+      <c r="G198" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="4">
+      <c r="H198" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="4">
+      <c r="I198" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5975,10 +6023,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="4" t="s">
+      <c r="J202" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6022,28 +6070,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="4">
+      <c r="A204" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="4">
+      <c r="B204" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="4">
+      <c r="C204" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="4">
+      <c r="E204" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="4">
+      <c r="F204" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="4">
+      <c r="G204" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="4">
+      <c r="H204" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6068,28 +6116,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="4">
+      <c r="C206" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="4">
+      <c r="D206" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="4">
+      <c r="G206" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="4">
+      <c r="H206" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="4">
+      <c r="I206" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6148,10 +6196,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="4" t="s">
+      <c r="J208" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6195,28 +6243,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="4">
+      <c r="A210" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="4">
+      <c r="B210" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="4">
+      <c r="C210" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="4">
+      <c r="E210" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="4">
+      <c r="F210" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="4">
+      <c r="G210" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="4">
+      <c r="H210" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6241,28 +6289,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="4">
+      <c r="C212" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="4">
+      <c r="D212" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="4">
+      <c r="I212" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6321,10 +6369,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="4" t="s">
+      <c r="J214" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6368,28 +6416,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="4">
+      <c r="A216" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="4">
+      <c r="B216" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="4">
+      <c r="C216" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="4">
+      <c r="E216" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="4">
+      <c r="F216" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="4">
+      <c r="G216" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="4">
+      <c r="H216" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6414,28 +6462,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="4">
+      <c r="C218" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="4">
+      <c r="D218" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="4">
+      <c r="E218" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="4">
+      <c r="F218" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="4">
+      <c r="G218" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="4">
+      <c r="H218" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="4">
+      <c r="I218" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6494,10 +6542,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="4" t="s">
+      <c r="J220" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6541,28 +6589,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="4">
+      <c r="A222" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="4">
+      <c r="B222" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="4">
+      <c r="C222" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="4">
+      <c r="E222" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="4">
+      <c r="F222" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="4">
+      <c r="G222" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="4">
+      <c r="H222" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6587,28 +6635,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="4">
+      <c r="B224" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="4">
+      <c r="C224" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="4">
+      <c r="D224" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="4">
+      <c r="E224" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="4">
+      <c r="F224" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="4">
+      <c r="G224" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="4">
+      <c r="H224" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="4">
+      <c r="I224" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6667,10 +6715,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="4" t="s">
+      <c r="J226" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6714,28 +6762,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="4">
+      <c r="A228" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="4">
+      <c r="B228" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="4">
+      <c r="C228" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="4">
+      <c r="E228" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="4">
+      <c r="F228" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="4">
+      <c r="G228" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="4">
+      <c r="H228" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6760,28 +6808,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="4">
+      <c r="B230" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="4">
+      <c r="C230" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="4">
+      <c r="D230" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="4">
+      <c r="E230" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="4">
+      <c r="F230" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="4">
+      <c r="G230" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="4">
+      <c r="H230" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="4">
+      <c r="I230" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6840,10 +6888,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="4" t="s">
+      <c r="J232" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6887,28 +6935,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="4">
+      <c r="A234" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="4">
+      <c r="B234" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="4">
+      <c r="C234" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="4">
+      <c r="E234" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="4">
+      <c r="F234" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="4">
+      <c r="G234" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="4">
+      <c r="H234" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6933,28 +6981,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="4">
+      <c r="B236" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="4">
+      <c r="C236" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="4">
+      <c r="D236" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="4">
+      <c r="E236" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="4">
+      <c r="F236" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="4">
+      <c r="G236" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="4">
+      <c r="H236" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="4">
+      <c r="I236" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7013,10 +7061,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="4" t="s">
+      <c r="J238" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7060,28 +7108,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="4">
+      <c r="A240" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="4">
+      <c r="B240" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="4">
+      <c r="C240" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="4">
+      <c r="E240" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="4">
+      <c r="F240" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="4">
+      <c r="G240" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="4">
+      <c r="H240" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7106,28 +7154,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="4">
+      <c r="B242" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="4">
+      <c r="C242" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="4">
+      <c r="D242" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="4">
+      <c r="E242" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="4">
+      <c r="F242" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="4">
+      <c r="G242" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="4">
+      <c r="H242" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="4">
+      <c r="I242" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7215,10 +7263,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="4" t="s">
+      <c r="J245" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7262,28 +7310,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="4">
+      <c r="A247" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="4">
+      <c r="B247" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="4">
+      <c r="C247" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="4">
+      <c r="E247" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="4">
+      <c r="F247" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="4">
+      <c r="G247" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="4">
+      <c r="H247" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7308,28 +7356,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="4">
+      <c r="B249" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="4">
+      <c r="C249" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="4">
+      <c r="D249" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="4">
+      <c r="E249" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="4">
+      <c r="F249" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="4">
+      <c r="G249" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="4">
+      <c r="H249" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="4">
+      <c r="I249" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7417,10 +7465,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="4" t="s">
+      <c r="J252" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7464,28 +7512,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="4">
+      <c r="A254" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="4">
+      <c r="B254" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="4">
+      <c r="C254" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="4">
+      <c r="E254" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="4">
+      <c r="F254" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="4">
+      <c r="G254" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="4">
+      <c r="H254" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7510,28 +7558,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="4">
+      <c r="B256" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="4">
+      <c r="C256" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="4">
+      <c r="D256" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="4">
+      <c r="E256" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="4">
+      <c r="F256" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="4">
+      <c r="G256" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="4">
+      <c r="H256" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="4">
+      <c r="I256" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7648,10 +7696,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="4" t="s">
+      <c r="J260" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7695,28 +7743,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="4">
+      <c r="A262" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="4">
+      <c r="C262" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="4">
+      <c r="G262" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="4">
+      <c r="H262" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7741,28 +7789,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="4">
+      <c r="C264" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="4">
+      <c r="D264" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="4">
+      <c r="I264" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7821,10 +7869,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="4" t="s">
+      <c r="J266" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7868,28 +7916,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="4">
+      <c r="A268" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="4">
+      <c r="B268" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="4">
+      <c r="C268" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="4">
+      <c r="E268" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="4">
+      <c r="F268" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="4">
+      <c r="G268" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="4">
+      <c r="H268" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7914,28 +7962,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="4">
+      <c r="B270" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="4">
+      <c r="C270" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="4">
+      <c r="D270" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="4">
+      <c r="G270" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="4">
+      <c r="H270" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="4">
+      <c r="I270" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8081,10 +8129,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="4" t="s">
+      <c r="J275" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8128,28 +8176,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="4">
+      <c r="A277" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="4">
+      <c r="B277" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="4">
+      <c r="C277" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="4">
+      <c r="E277" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="4">
+      <c r="F277" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="4">
+      <c r="G277" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="4">
+      <c r="H277" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8174,28 +8222,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="4">
+      <c r="B279" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="4">
+      <c r="C279" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="4">
+      <c r="D279" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="4">
+      <c r="E279" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="4">
+      <c r="F279" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="4">
+      <c r="G279" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="4">
+      <c r="H279" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="4">
+      <c r="I279" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8341,10 +8389,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="4" t="s">
+      <c r="J284" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8388,28 +8436,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="4">
+      <c r="A286" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="4">
+      <c r="B286" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="4">
+      <c r="C286" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="4">
+      <c r="E286" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="4">
+      <c r="F286" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="4">
+      <c r="G286" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="4">
+      <c r="H286" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8434,28 +8482,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="4">
+      <c r="B288" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="4">
+      <c r="C288" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="4">
+      <c r="D288" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="4">
+      <c r="E288" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="4">
+      <c r="F288" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="4">
+      <c r="G288" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="4">
+      <c r="H288" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="4">
+      <c r="I288" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8543,10 +8591,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="4" t="s">
+      <c r="J291" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9264" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11364" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -392,10 +410,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -439,28 +457,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="12">
+      <c r="B9" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="12">
+      <c r="C9" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -485,28 +503,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="12">
+      <c r="I11" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -739,10 +757,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="12" t="s">
+      <c r="J19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -786,28 +804,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="12">
+      <c r="A21" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="12">
+      <c r="C21" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -832,28 +850,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="12">
+      <c r="B23" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="12">
+      <c r="C23" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="12">
+      <c r="D23" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="12">
+      <c r="E23" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="12">
+      <c r="F23" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="12">
+      <c r="G23" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="12">
+      <c r="H23" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="12">
+      <c r="I23" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -970,10 +988,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="12" t="s">
+      <c r="J27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -1017,28 +1035,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="12">
+      <c r="A29" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="12">
+      <c r="B29" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="12">
+      <c r="C29" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="E29" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="12">
+      <c r="F29" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="12">
+      <c r="G29" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="12">
+      <c r="H29" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1063,28 +1081,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="C31" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="12">
+      <c r="D31" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="12">
+      <c r="F31" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G31" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="12">
+      <c r="H31" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="12">
+      <c r="I31" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1143,10 +1161,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="12" t="s">
+      <c r="J33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1190,28 +1208,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="12">
+      <c r="A35" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="12">
+      <c r="C35" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1236,28 +1254,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="12">
+      <c r="B37" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="12">
+      <c r="C37" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="12">
+      <c r="D37" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="12">
+      <c r="E37" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="12">
+      <c r="F37" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="12">
+      <c r="G37" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="12">
+      <c r="H37" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="12">
+      <c r="I37" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1403,10 +1421,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="12" t="s">
+      <c r="J42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1450,28 +1468,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="12">
+      <c r="A44" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="12">
+      <c r="C44" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1496,28 +1514,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="12">
+      <c r="C46" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="D46" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="12">
+      <c r="I46" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1576,10 +1594,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="12" t="s">
+      <c r="J48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1623,28 +1641,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="12">
+      <c r="A50" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="12">
+      <c r="C50" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1669,28 +1687,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C52" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F52" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="12">
+      <c r="G52" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="12">
+      <c r="I52" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1825,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="12" t="s">
+      <c r="J56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1854,28 +1872,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="12">
+      <c r="A58" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="12">
+      <c r="B58" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="12">
+      <c r="C58" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="12">
+      <c r="E58" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="12">
+      <c r="F58" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="12">
+      <c r="G58" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1918,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="12">
+      <c r="C60" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="12">
+      <c r="D60" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="12">
+      <c r="I60" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2125,10 +2143,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="12" t="s">
+      <c r="J67" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2172,28 +2190,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="12">
+      <c r="A69" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="12">
+      <c r="B69" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="12">
+      <c r="C69" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="12">
+      <c r="E69" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="12">
+      <c r="F69" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="12">
+      <c r="G69" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="12">
+      <c r="H69" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2218,28 +2236,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="12">
+      <c r="C71" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="12">
+      <c r="D71" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="12">
+      <c r="I71" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2501,10 +2519,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="12" t="s">
+      <c r="J80" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2548,28 +2566,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="12">
+      <c r="A82" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="12">
+      <c r="B82" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="12">
+      <c r="C82" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="12">
+      <c r="E82" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="12">
+      <c r="F82" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="12">
+      <c r="G82" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="12">
+      <c r="H82" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2594,28 +2612,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="12">
+      <c r="C84" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="12">
+      <c r="D84" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="12">
+      <c r="E84" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="12">
+      <c r="F84" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="12">
+      <c r="G84" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="12">
+      <c r="I84" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2732,10 +2750,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="12" t="s">
+      <c r="J88" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2779,28 +2797,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="12">
+      <c r="A90" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="12">
+      <c r="C90" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2825,28 +2843,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="12">
+      <c r="B92" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="12">
+      <c r="C92" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="12">
+      <c r="D92" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="12">
+      <c r="E92" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="12">
+      <c r="F92" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="12">
+      <c r="G92" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="12">
+      <c r="H92" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="12">
+      <c r="I92" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3021,10 +3039,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="12" t="s">
+      <c r="J98" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3068,28 +3086,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="12">
+      <c r="A100" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="12">
+      <c r="B100" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="12">
+      <c r="C100" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="12">
+      <c r="E100" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="12">
+      <c r="F100" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="12">
+      <c r="G100" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="12">
+      <c r="H100" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3114,28 +3132,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="12">
+      <c r="C102" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="12">
+      <c r="D102" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="12">
+      <c r="E102" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="12">
+      <c r="F102" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="12">
+      <c r="G102" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="12">
+      <c r="H102" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="12">
+      <c r="I102" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3194,10 +3212,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="12" t="s">
+      <c r="J104" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3241,28 +3259,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="12">
+      <c r="A106" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="12">
+      <c r="B106" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="12">
+      <c r="C106" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="12">
+      <c r="E106" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="12">
+      <c r="F106" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="12">
+      <c r="G106" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="12">
+      <c r="H106" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3287,28 +3305,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="12">
+      <c r="C108" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="12">
+      <c r="D108" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="12">
+      <c r="E108" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="12">
+      <c r="F108" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="12">
+      <c r="G108" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="12">
+      <c r="H108" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="12">
+      <c r="I108" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3483,10 +3501,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="12" t="s">
+      <c r="J114" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3530,28 +3548,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="12">
+      <c r="A116" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="12">
+      <c r="C116" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3576,28 +3594,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="12">
+      <c r="B118" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="12">
+      <c r="C118" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="12">
+      <c r="D118" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="12">
+      <c r="E118" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="12">
+      <c r="F118" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="12">
+      <c r="G118" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="12">
+      <c r="H118" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="12">
+      <c r="I118" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3714,10 +3732,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="12" t="s">
+      <c r="J122" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3761,28 +3779,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="12">
+      <c r="A124" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="12">
+      <c r="B124" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="12">
+      <c r="C124" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="12">
+      <c r="F124" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="12">
+      <c r="H124" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3807,28 +3825,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="12">
+      <c r="C126" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="12">
+      <c r="D126" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="12">
+      <c r="I126" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3916,10 +3934,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="12" t="s">
+      <c r="J129" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3963,28 +3981,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="12">
+      <c r="A131" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="12">
+      <c r="B131" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="12">
+      <c r="C131" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="12">
+      <c r="E131" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="12">
+      <c r="F131" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="12">
+      <c r="G131" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="12">
+      <c r="H131" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4009,28 +4027,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="12">
+      <c r="B133" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="12">
+      <c r="C133" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="12">
+      <c r="D133" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="12">
+      <c r="E133" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="12">
+      <c r="F133" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="12">
+      <c r="G133" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="12">
+      <c r="H133" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="12">
+      <c r="I133" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4118,10 +4136,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="12" t="s">
+      <c r="J136" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4165,28 +4183,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="12">
+      <c r="A138" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="12">
+      <c r="C138" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4211,28 +4229,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C140" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D140" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="12">
+      <c r="I140" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4407,10 +4425,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="12" t="s">
+      <c r="J146" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4454,28 +4472,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="12">
+      <c r="A148" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="12">
+      <c r="C148" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4500,28 +4518,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="12">
+      <c r="B150" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="12">
+      <c r="C150" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="12">
+      <c r="D150" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="12">
+      <c r="E150" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="12">
+      <c r="F150" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="12">
+      <c r="G150" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="12">
+      <c r="H150" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="12">
+      <c r="I150" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4667,10 +4685,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="12" t="s">
+      <c r="J155" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4714,28 +4732,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="12">
+      <c r="A157" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="12">
+      <c r="B157" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="12">
+      <c r="C157" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="12">
+      <c r="E157" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="12">
+      <c r="F157" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="12">
+      <c r="G157" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="12">
+      <c r="H157" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4760,28 +4778,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="12">
+      <c r="B159" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="12">
+      <c r="C159" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="12">
+      <c r="D159" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="12">
+      <c r="E159" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="12">
+      <c r="F159" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="12">
+      <c r="G159" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="12">
+      <c r="H159" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="12">
+      <c r="I159" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4869,10 +4887,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="12" t="s">
+      <c r="J162" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4916,28 +4934,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="12">
+      <c r="A164" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="12">
+      <c r="C164" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4962,28 +4980,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="12">
+      <c r="I166" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5042,10 +5060,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="12" t="s">
+      <c r="J168" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5089,28 +5107,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="12">
+      <c r="C170" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5135,28 +5153,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5215,10 +5233,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="12" t="s">
+      <c r="J174" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5262,28 +5280,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="12">
+      <c r="A176" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="12">
+      <c r="C176" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5308,28 +5326,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="12">
+      <c r="C178" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="12">
+      <c r="D178" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="12">
+      <c r="I178" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5446,10 +5464,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="12" t="s">
+      <c r="J182" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5493,28 +5511,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="12">
+      <c r="A184" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="12">
+      <c r="C184" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5539,28 +5557,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="12">
+      <c r="C186" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="12">
+      <c r="D186" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="12">
+      <c r="I186" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5619,10 +5637,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="12" t="s">
+      <c r="J188" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5666,28 +5684,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="12">
+      <c r="A190" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="12">
+      <c r="C190" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5712,28 +5730,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="12">
+      <c r="C192" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="12">
+      <c r="D192" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="12">
+      <c r="I192" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5792,10 +5810,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="12" t="s">
+      <c r="J194" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5839,28 +5857,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="12">
+      <c r="A196" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="12">
+      <c r="B196" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="12">
+      <c r="C196" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="12">
+      <c r="E196" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="12">
+      <c r="F196" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="12">
+      <c r="G196" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="12">
+      <c r="H196" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5885,28 +5903,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="12">
+      <c r="B198" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="12">
+      <c r="C198" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="12">
+      <c r="D198" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="12">
+      <c r="E198" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="12">
+      <c r="F198" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="12">
+      <c r="G198" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="12">
+      <c r="H198" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="12">
+      <c r="I198" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6023,10 +6041,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="12" t="s">
+      <c r="J202" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6070,28 +6088,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="12">
+      <c r="A204" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="12">
+      <c r="B204" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="12">
+      <c r="C204" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="12">
+      <c r="E204" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="12">
+      <c r="F204" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="12">
+      <c r="G204" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="12">
+      <c r="H204" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6116,28 +6134,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="12">
+      <c r="C206" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="12">
+      <c r="D206" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="12">
+      <c r="E206" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="12">
+      <c r="F206" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="12">
+      <c r="G206" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="12">
+      <c r="H206" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="12">
+      <c r="I206" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6196,10 +6214,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="12" t="s">
+      <c r="J208" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6243,28 +6261,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="12">
+      <c r="A210" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="12">
+      <c r="B210" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="12">
+      <c r="C210" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="12">
+      <c r="E210" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="12">
+      <c r="F210" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="12">
+      <c r="G210" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="12">
+      <c r="H210" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6289,28 +6307,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="12">
+      <c r="C212" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="12">
+      <c r="D212" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="12">
+      <c r="I212" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6369,10 +6387,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="12" t="s">
+      <c r="J214" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6416,28 +6434,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="12">
+      <c r="A216" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="12">
+      <c r="B216" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="12">
+      <c r="C216" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="12">
+      <c r="E216" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="12">
+      <c r="F216" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="12">
+      <c r="G216" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="12">
+      <c r="H216" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6462,28 +6480,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="12">
+      <c r="B218" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="12">
+      <c r="C218" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="12">
+      <c r="D218" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="12">
+      <c r="E218" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="12">
+      <c r="F218" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="12">
+      <c r="G218" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="12">
+      <c r="H218" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="12">
+      <c r="I218" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6542,10 +6560,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="12" t="s">
+      <c r="J220" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6589,28 +6607,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="12">
+      <c r="A222" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="12">
+      <c r="B222" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="12">
+      <c r="C222" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="12">
+      <c r="E222" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="12">
+      <c r="F222" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="12">
+      <c r="G222" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="12">
+      <c r="H222" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6635,28 +6653,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="12">
+      <c r="B224" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="12">
+      <c r="C224" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="12">
+      <c r="D224" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="12">
+      <c r="E224" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="12">
+      <c r="F224" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="12">
+      <c r="G224" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="12">
+      <c r="H224" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="12">
+      <c r="I224" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6715,10 +6733,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="12" t="s">
+      <c r="J226" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6762,28 +6780,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="12">
+      <c r="A228" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="12">
+      <c r="B228" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="12">
+      <c r="C228" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="12">
+      <c r="E228" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="12">
+      <c r="F228" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="12">
+      <c r="G228" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="12">
+      <c r="H228" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6808,28 +6826,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="12">
+      <c r="B230" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="12">
+      <c r="C230" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="12">
+      <c r="D230" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="12">
+      <c r="E230" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="12">
+      <c r="F230" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="12">
+      <c r="G230" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="12">
+      <c r="H230" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="12">
+      <c r="I230" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6888,10 +6906,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="12" t="s">
+      <c r="J232" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6935,28 +6953,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="12">
+      <c r="A234" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="12">
+      <c r="B234" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="12">
+      <c r="C234" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="12">
+      <c r="E234" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="12">
+      <c r="F234" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="12">
+      <c r="G234" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="12">
+      <c r="H234" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6981,28 +6999,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="12">
+      <c r="B236" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="12">
+      <c r="C236" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="12">
+      <c r="D236" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="12">
+      <c r="E236" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="12">
+      <c r="F236" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="12">
+      <c r="G236" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="12">
+      <c r="H236" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="12">
+      <c r="I236" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7061,10 +7079,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="12" t="s">
+      <c r="J238" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7108,28 +7126,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="12">
+      <c r="A240" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="12">
+      <c r="B240" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="12">
+      <c r="C240" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="12">
+      <c r="E240" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="12">
+      <c r="F240" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="12">
+      <c r="G240" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="12">
+      <c r="H240" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7154,28 +7172,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="12">
+      <c r="B242" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="12">
+      <c r="C242" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="12">
+      <c r="D242" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="12">
+      <c r="E242" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="12">
+      <c r="F242" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="12">
+      <c r="G242" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="12">
+      <c r="H242" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="12">
+      <c r="I242" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7263,10 +7281,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="12" t="s">
+      <c r="J245" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7310,28 +7328,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="12">
+      <c r="A247" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="12">
+      <c r="B247" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="12">
+      <c r="C247" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="12">
+      <c r="E247" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="12">
+      <c r="F247" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="12">
+      <c r="G247" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="12">
+      <c r="H247" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7356,28 +7374,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="12">
+      <c r="B249" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="12">
+      <c r="C249" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="12">
+      <c r="D249" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="12">
+      <c r="E249" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="12">
+      <c r="F249" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="12">
+      <c r="G249" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="12">
+      <c r="H249" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="12">
+      <c r="I249" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7465,10 +7483,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="12" t="s">
+      <c r="J252" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7512,28 +7530,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="12">
+      <c r="A254" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="12">
+      <c r="B254" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="12">
+      <c r="C254" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="12">
+      <c r="E254" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="12">
+      <c r="F254" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="12">
+      <c r="G254" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="12">
+      <c r="H254" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7558,28 +7576,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="12">
+      <c r="B256" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="12">
+      <c r="C256" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="12">
+      <c r="D256" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="12">
+      <c r="E256" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="12">
+      <c r="F256" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="12">
+      <c r="G256" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="12">
+      <c r="H256" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="12">
+      <c r="I256" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7696,10 +7714,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="12" t="s">
+      <c r="J260" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7743,28 +7761,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="12">
+      <c r="A262" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="12">
+      <c r="C262" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="12">
+      <c r="E262" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="12">
+      <c r="F262" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="12">
+      <c r="G262" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="12">
+      <c r="H262" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7789,28 +7807,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="12">
+      <c r="C264" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="12">
+      <c r="D264" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="12">
+      <c r="I264" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7869,10 +7887,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="12" t="s">
+      <c r="J266" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7916,28 +7934,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="12">
+      <c r="A268" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="12">
+      <c r="B268" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="12">
+      <c r="C268" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="12">
+      <c r="E268" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="12">
+      <c r="F268" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="12">
+      <c r="G268" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="12">
+      <c r="H268" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7962,28 +7980,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="12">
+      <c r="C270" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="12">
+      <c r="D270" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="12">
+      <c r="E270" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="12">
+      <c r="F270" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="12">
+      <c r="G270" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="12">
+      <c r="H270" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="12">
+      <c r="I270" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8129,10 +8147,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="12" t="s">
+      <c r="J275" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8176,28 +8194,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="12">
+      <c r="A277" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="12">
+      <c r="B277" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="12">
+      <c r="C277" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="12">
+      <c r="E277" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="12">
+      <c r="F277" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="12">
+      <c r="G277" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="12">
+      <c r="H277" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8222,28 +8240,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="12">
+      <c r="B279" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="12">
+      <c r="C279" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="12">
+      <c r="D279" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="12">
+      <c r="E279" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="12">
+      <c r="F279" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="12">
+      <c r="G279" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="12">
+      <c r="H279" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="12">
+      <c r="I279" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8389,10 +8407,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="12" t="s">
+      <c r="J284" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8436,28 +8454,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="12">
+      <c r="A286" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="12">
+      <c r="B286" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="12">
+      <c r="C286" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="12">
+      <c r="E286" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="12">
+      <c r="F286" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="12">
+      <c r="G286" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="12">
+      <c r="H286" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8482,28 +8500,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="12">
+      <c r="C288" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="12">
+      <c r="D288" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="12">
+      <c r="E288" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="12">
+      <c r="F288" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="12">
+      <c r="G288" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="12">
+      <c r="H288" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="12">
+      <c r="I288" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8591,10 +8609,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="12" t="s">
+      <c r="J291" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
